--- a/new original/_Lang_Chinese/Lang/CN/Game/Floor.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.260</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/new original/_Lang_Chinese/Lang/CN/Game/Floor.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/Floor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="317">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.260</t>
+    <t xml:space="preserve">EA 23.267</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -746,6 +746,12 @@
     <t xml:space="preserve">127</t>
   </si>
   <si>
+    <t xml:space="preserve">128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 11.1</t>
   </si>
   <si>
@@ -807,6 +813,9 @@
   </si>
   <si>
     <t xml:space="preserve">EA 23.234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.265</t>
   </si>
   <si>
     <t xml:space="preserve">硬土地板</t>
@@ -1068,7 +1077,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1080,10 +1089,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1099,10 +1108,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1118,10 +1127,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1137,10 +1146,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1156,10 +1165,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1175,10 +1184,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1194,10 +1203,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1213,10 +1222,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1232,10 +1241,10 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -1251,10 +1260,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1270,10 +1279,10 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -1289,10 +1298,10 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C15" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1308,10 +1317,10 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -1327,10 +1336,10 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1346,10 +1355,10 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C18" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1365,10 +1374,10 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C19" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1384,10 +1393,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C20" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1403,10 +1412,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
@@ -1422,10 +1431,10 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C22" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1441,10 +1450,10 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C23" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
@@ -1460,10 +1469,10 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C24" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -1479,10 +1488,10 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C25" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
@@ -1498,10 +1507,10 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C26" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D26" t="s">
         <v>63</v>
@@ -1517,10 +1526,10 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C27" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1536,10 +1545,10 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C28" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -1555,10 +1564,10 @@
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C29" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -1574,10 +1583,10 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C30" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D30" t="s">
         <v>69</v>
@@ -1593,10 +1602,10 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -1612,10 +1621,10 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C32" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -1631,10 +1640,10 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C33" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
@@ -1650,10 +1659,10 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C34" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -1669,10 +1678,10 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C35" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -1688,10 +1697,10 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C36" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D36" t="s">
         <v>74</v>
@@ -1707,10 +1716,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C37" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1726,10 +1735,10 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C38" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D38" t="s">
         <v>84</v>
@@ -1745,10 +1754,10 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C39" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D39" t="s">
         <v>87</v>
@@ -1764,10 +1773,10 @@
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D40" t="s">
         <v>90</v>
@@ -1783,10 +1792,10 @@
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C41" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D41" t="s">
         <v>93</v>
@@ -1802,10 +1811,10 @@
         <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C42" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D42" t="s">
         <v>96</v>
@@ -1821,10 +1830,10 @@
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C43" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
@@ -1840,10 +1849,10 @@
         <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C44" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D44" t="s">
         <v>102</v>
@@ -1859,10 +1868,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C45" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D45" t="s">
         <v>105</v>
@@ -1878,7 +1887,7 @@
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C46" t="s">
         <v>109</v>
@@ -1897,10 +1906,10 @@
         <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C47" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D47" t="s">
         <v>111</v>
@@ -1916,10 +1925,10 @@
         <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C48" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D48" t="s">
         <v>102</v>
@@ -1935,10 +1944,10 @@
         <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C49" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -1954,10 +1963,10 @@
         <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -1973,10 +1982,10 @@
         <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C51" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
@@ -1992,10 +2001,10 @@
         <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C52" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D52" t="s">
         <v>119</v>
@@ -2011,10 +2020,10 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C53" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D53" t="s">
         <v>122</v>
@@ -2030,10 +2039,10 @@
         <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C54" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D54" t="s">
         <v>122</v>
@@ -2049,10 +2058,10 @@
         <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C55" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D55" t="s">
         <v>26</v>
@@ -2068,10 +2077,10 @@
         <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C56" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D56" t="s">
         <v>26</v>
@@ -2087,10 +2096,10 @@
         <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C57" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D57" t="s">
         <v>128</v>
@@ -2106,10 +2115,10 @@
         <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C58" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -2125,10 +2134,10 @@
         <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C59" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D59" t="s">
         <v>96</v>
@@ -2144,10 +2153,10 @@
         <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C60" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -2163,10 +2172,10 @@
         <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C61" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D61" t="s">
         <v>69</v>
@@ -2182,10 +2191,10 @@
         <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
@@ -2201,10 +2210,10 @@
         <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C63" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -2220,10 +2229,10 @@
         <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D64" t="s">
         <v>26</v>
@@ -2239,10 +2248,10 @@
         <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C65" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
@@ -2258,10 +2267,10 @@
         <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C66" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
@@ -2277,10 +2286,10 @@
         <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C67" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
@@ -2296,10 +2305,10 @@
         <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C68" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
@@ -2315,10 +2324,10 @@
         <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C69" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D69" t="s">
         <v>63</v>
@@ -2334,10 +2343,10 @@
         <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C70" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D70" t="s">
         <v>63</v>
@@ -2353,10 +2362,10 @@
         <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C71" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D71" t="s">
         <v>63</v>
@@ -2372,10 +2381,10 @@
         <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C72" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D72" t="s">
         <v>63</v>
@@ -2391,10 +2400,10 @@
         <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C73" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D73" t="s">
         <v>63</v>
@@ -2410,10 +2419,10 @@
         <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C74" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D74" t="s">
         <v>63</v>
@@ -2429,10 +2438,10 @@
         <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C75" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D75" t="s">
         <v>148</v>
@@ -2448,10 +2457,10 @@
         <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C76" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D76" t="s">
         <v>151</v>
@@ -2467,10 +2476,10 @@
         <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C77" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D77" t="s">
         <v>74</v>
@@ -2486,10 +2495,10 @@
         <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C78" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D78" t="s">
         <v>155</v>
@@ -2505,10 +2514,10 @@
         <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
@@ -2524,10 +2533,10 @@
         <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C80" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D80" t="s">
         <v>161</v>
@@ -2543,10 +2552,10 @@
         <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C81" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D81" t="s">
         <v>164</v>
@@ -2562,10 +2571,10 @@
         <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C82" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D82" t="s">
         <v>164</v>
@@ -2581,10 +2590,10 @@
         <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D83" t="s">
         <v>164</v>
@@ -2600,10 +2609,10 @@
         <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C84" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D84" t="s">
         <v>164</v>
@@ -2619,10 +2628,10 @@
         <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C85" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D85" t="s">
         <v>170</v>
@@ -2638,10 +2647,10 @@
         <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C86" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D86" t="s">
         <v>170</v>
@@ -2657,10 +2666,10 @@
         <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C87" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D87" t="s">
         <v>170</v>
@@ -2676,10 +2685,10 @@
         <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C88" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D88" t="s">
         <v>170</v>
@@ -2695,10 +2704,10 @@
         <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C89" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D89" t="s">
         <v>170</v>
@@ -2714,10 +2723,10 @@
         <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C90" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D90" t="s">
         <v>170</v>
@@ -2733,10 +2742,10 @@
         <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C91" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D91" t="s">
         <v>170</v>
@@ -2752,10 +2761,10 @@
         <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C92" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D92" t="s">
         <v>170</v>
@@ -2771,10 +2780,10 @@
         <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C93" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D93" t="s">
         <v>180</v>
@@ -2790,10 +2799,10 @@
         <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C94" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D94" t="s">
         <v>63</v>
@@ -2809,10 +2818,10 @@
         <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C95" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D95" t="s">
         <v>164</v>
@@ -2828,10 +2837,10 @@
         <v>184</v>
       </c>
       <c r="B96" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C96" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D96" t="s">
         <v>185</v>
@@ -2847,10 +2856,10 @@
         <v>187</v>
       </c>
       <c r="B97" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C97" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D97" t="s">
         <v>188</v>
@@ -2866,10 +2875,10 @@
         <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C98" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D98" t="s">
         <v>188</v>
@@ -2885,10 +2894,10 @@
         <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C99" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D99" t="s">
         <v>192</v>
@@ -2904,10 +2913,10 @@
         <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C100" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D100" t="s">
         <v>192</v>
@@ -2923,10 +2932,10 @@
         <v>195</v>
       </c>
       <c r="B101" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C101" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D101" t="s">
         <v>185</v>
@@ -2942,10 +2951,10 @@
         <v>196</v>
       </c>
       <c r="B102" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C102" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D102" t="s">
         <v>197</v>
@@ -2961,10 +2970,10 @@
         <v>199</v>
       </c>
       <c r="B103" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C103" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D103" t="s">
         <v>200</v>
@@ -2980,10 +2989,10 @@
         <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C104" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D104" t="s">
         <v>155</v>
@@ -2999,10 +3008,10 @@
         <v>203</v>
       </c>
       <c r="B105" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C105" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D105" t="s">
         <v>69</v>
@@ -3018,10 +3027,10 @@
         <v>204</v>
       </c>
       <c r="B106" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C106" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D106" t="s">
         <v>69</v>
@@ -3037,10 +3046,10 @@
         <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C107" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D107" t="s">
         <v>128</v>
@@ -3056,10 +3065,10 @@
         <v>206</v>
       </c>
       <c r="B108" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C108" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
@@ -3075,10 +3084,10 @@
         <v>207</v>
       </c>
       <c r="B109" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C109" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D109" t="s">
         <v>26</v>
@@ -3094,10 +3103,10 @@
         <v>208</v>
       </c>
       <c r="B110" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C110" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D110" t="s">
         <v>63</v>
@@ -3113,10 +3122,10 @@
         <v>209</v>
       </c>
       <c r="B111" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C111" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -3132,10 +3141,10 @@
         <v>210</v>
       </c>
       <c r="B112" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C112" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D112" t="s">
         <v>26</v>
@@ -3151,10 +3160,10 @@
         <v>211</v>
       </c>
       <c r="B113" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C113" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D113" t="s">
         <v>63</v>
@@ -3170,10 +3179,10 @@
         <v>212</v>
       </c>
       <c r="B114" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C114" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D114" t="s">
         <v>63</v>
@@ -3189,10 +3198,10 @@
         <v>213</v>
       </c>
       <c r="B115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C115" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D115" t="s">
         <v>214</v>
@@ -3208,10 +3217,10 @@
         <v>216</v>
       </c>
       <c r="B116" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C116" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D116" t="s">
         <v>217</v>
@@ -3227,10 +3236,10 @@
         <v>219</v>
       </c>
       <c r="B117" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C117" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D117" t="s">
         <v>217</v>
@@ -3246,10 +3255,10 @@
         <v>220</v>
       </c>
       <c r="B118" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C118" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D118" t="s">
         <v>50</v>
@@ -3265,10 +3274,10 @@
         <v>221</v>
       </c>
       <c r="B119" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C119" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D119" t="s">
         <v>50</v>
@@ -3284,10 +3293,10 @@
         <v>222</v>
       </c>
       <c r="B120" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C120" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D120" t="s">
         <v>26</v>
@@ -3303,10 +3312,10 @@
         <v>223</v>
       </c>
       <c r="B121" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C121" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D121" t="s">
         <v>50</v>
@@ -3322,10 +3331,10 @@
         <v>224</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C122" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D122" t="s">
         <v>50</v>
@@ -3341,10 +3350,10 @@
         <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C123" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D123" t="s">
         <v>50</v>
@@ -3360,10 +3369,10 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C124" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D124" t="s">
         <v>227</v>
@@ -3379,10 +3388,10 @@
         <v>229</v>
       </c>
       <c r="B125" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C125" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D125" t="s">
         <v>230</v>
@@ -3398,10 +3407,10 @@
         <v>232</v>
       </c>
       <c r="B126" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C126" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D126" t="s">
         <v>233</v>
@@ -3417,10 +3426,10 @@
         <v>235</v>
       </c>
       <c r="B127" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C127" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D127" t="s">
         <v>236</v>
@@ -3436,10 +3445,10 @@
         <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C128" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D128" t="s">
         <v>239</v>
@@ -3455,10 +3464,10 @@
         <v>241</v>
       </c>
       <c r="B129" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C129" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D129" t="s">
         <v>239</v>
@@ -3474,10 +3483,10 @@
         <v>242</v>
       </c>
       <c r="B130" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C130" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D130" t="s">
         <v>26</v>
@@ -3487,6 +3496,44 @@
       </c>
       <c r="G130"/>
       <c r="H130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>243</v>
+      </c>
+      <c r="B131" t="s">
+        <v>266</v>
+      </c>
+      <c r="C131" t="s">
+        <v>272</v>
+      </c>
+      <c r="D131" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" t="s">
+        <v>27</v>
+      </c>
+      <c r="G131"/>
+      <c r="H131"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>244</v>
+      </c>
+      <c r="B132" t="s">
+        <v>266</v>
+      </c>
+      <c r="C132" t="s">
+        <v>272</v>
+      </c>
+      <c r="D132" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132" t="s">
+        <v>27</v>
+      </c>
+      <c r="G132"/>
+      <c r="H132"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>
